--- a/historyTransaction.xlsx
+++ b/historyTransaction.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -196,6 +196,183 @@
   </si>
   <si>
     <t>Vault of Stumble Token(650)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ksadjkasd</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>4B Koin Emas-D</t>
+  </si>
+  <si>
+    <t>12(1231)</t>
+  </si>
+  <si>
+    <t>Mobile Legends</t>
+  </si>
+  <si>
+    <t>151364</t>
+  </si>
+  <si>
+    <t>Twilight Pass</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>123312</t>
+  </si>
+  <si>
+    <t>142500</t>
+  </si>
+  <si>
+    <t>1375 Points</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>9823</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>8B Koin Emas-D</t>
+  </si>
+  <si>
+    <t>DANA</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>55295</t>
+  </si>
+  <si>
+    <t>Crate of Gems(1600 + 75T)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>123123(1212)</t>
+  </si>
+  <si>
+    <t>3330</t>
+  </si>
+  <si>
+    <t>11 Diamonds + 1 Bonus</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>31500</t>
+  </si>
+  <si>
+    <t>Bag of Gems(800)</t>
+  </si>
+  <si>
+    <t>SHOPEE</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>4800000</t>
+  </si>
+  <si>
+    <t>50000 Points</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ayam</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>komangabi</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>41241</t>
+  </si>
+  <si>
+    <t>76000</t>
+  </si>
+  <si>
+    <t>700 Points</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>237500</t>
+  </si>
+  <si>
+    <t>2400 Points</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>dian</t>
+  </si>
+  <si>
+    <t>324234</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -559,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2763975-6E3F-403C-A1C4-4E5E1BD89D75}">
-  <dimension ref="E2:L23"/>
+  <dimension ref="E2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L14" sqref="F4:L14"/>
@@ -679,28 +856,90 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
+    <row r="7">
+      <c r="F7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
     <row r="10">
       <c r="F10" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G10" s="0"/>
       <c r="H10" t="s" s="0">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -709,16 +948,16 @@
       </c>
       <c r="G11" s="0"/>
       <c r="H11" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="L11" t="s" s="0">
         <v>26</v>
@@ -730,19 +969,19 @@
       </c>
       <c r="G12" s="0"/>
       <c r="H12" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -751,19 +990,19 @@
       </c>
       <c r="G13" s="0"/>
       <c r="H13" t="s" s="0">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -772,16 +1011,16 @@
       </c>
       <c r="G14" s="0"/>
       <c r="H14" t="s" s="0">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s" s="0">
         <v>26</v>
@@ -793,16 +1032,16 @@
       </c>
       <c r="G15" s="0"/>
       <c r="H15" t="s" s="0">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L15" t="s" s="0">
         <v>26</v>
@@ -814,28 +1053,437 @@
       </c>
       <c r="G16" s="0"/>
       <c r="H16" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="G18" s="0"/>
+      <c r="H18" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="J16" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="K16" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
+      <c r="J18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G19" s="0"/>
+      <c r="H19" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="G20" s="0"/>
+      <c r="H20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="G21" s="0"/>
+      <c r="H21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="G22" s="0"/>
+      <c r="H22" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G23" s="0"/>
+      <c r="H23" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G24" s="0"/>
+      <c r="H24" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="G25" s="0"/>
+      <c r="H25" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G26" s="0"/>
+      <c r="H26" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G27" s="0"/>
+      <c r="H27" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="L28" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="G29" s="0"/>
+      <c r="H29" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L29" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="G30" s="0"/>
+      <c r="H30" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L31" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="L32" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="L33" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="L34" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="G35" s="0"/>
+      <c r="H35" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
   </sheetData>
   <autoFilter ref="F3:L6" xr:uid="{C8F1E646-ABAA-4E89-AE9D-4AAC9C9CAF97}"/>
   <mergeCells count="1">
